--- a/premise/data/additional_inventories/lci-cobalt.xlsx
+++ b/premise/data/additional_inventories/lci-cobalt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207DF5EB-C47F-624E-8133-C3A493B141CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5DB36-E744-E747-861A-29953AA4048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1380" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F405F435-5E2B-E644-83D2-BBB8FE808D59}">
   <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8730,7 +8730,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8852,10 +8852,7 @@
       <c r="M7" s="22">
         <v>0.35</v>
       </c>
-      <c r="O7" s="23">
-        <f>M7/M6</f>
-        <v>74.468085106382972</v>
-      </c>
+      <c r="O7" s="23"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
